--- a/wzrv/expdata/2019.xlsx
+++ b/wzrv/expdata/2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC7CEAA-41D4-3A4A-A395-0FA0CF7245A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A34B232-22FB-C547-905E-67C33B88BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>syst2_c</t>
+  </si>
+  <si>
+    <t>norm_c</t>
   </si>
 </sst>
 </file>
@@ -417,7 +417,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -451,25 +451,25 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>946</v>
@@ -504,16 +504,16 @@
         <v>10.8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>833.6</v>
@@ -548,16 +548,16 @@
         <v>9.6</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>728</v>
@@ -592,16 +592,16 @@
         <v>8.4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>613.20000000000005</v>
@@ -636,16 +636,16 @@
         <v>7.2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>478</v>
@@ -680,16 +680,16 @@
         <v>5.6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>337.6</v>
@@ -724,16 +724,16 @@
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>172.8</v>
@@ -768,16 +768,16 @@
         <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -794,7 +794,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>46</v>
@@ -812,16 +812,16 @@
         <v>0.6</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>536</v>
@@ -856,16 +856,16 @@
         <v>6.4</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -882,7 +882,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1">
         <v>479.2</v>
@@ -900,16 +900,16 @@
         <v>5.6</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
         <v>442.4</v>
@@ -944,16 +944,16 @@
         <v>5.2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>409.6</v>
@@ -988,16 +988,16 @@
         <v>4.8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1">
         <v>370</v>
@@ -1032,16 +1032,16 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1058,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
         <v>319.60000000000002</v>
@@ -1076,16 +1076,16 @@
         <v>3.6</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1">
         <v>238.6</v>
@@ -1120,16 +1120,16 @@
         <v>2.8</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1146,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
         <v>120</v>
@@ -1164,16 +1164,16 @@
         <v>1.4</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
